--- a/eda/vlsp2016/test/column-2-analyze.xlsx
+++ b/eda/vlsp2016/test/column-2-analyze.xlsx
@@ -22,64 +22,64 @@
     <t>count</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>B-AP</t>
   </si>
   <si>
-    <t>A, NNP, FW, Ab</t>
-  </si>
-  <si>
     <t>nhiều, hơn, nhất, gần, khác, cùng, lớn, cao, đầu tiên, nghèo</t>
   </si>
   <si>
+    <t>A, Np, FW</t>
+  </si>
+  <si>
     <t>B-NP</t>
   </si>
   <si>
-    <t>N, P, M, NNP, Ns, L, Nc, Nu, Ny, Nb</t>
-  </si>
-  <si>
     <t>một, người, ông, những, các, năm, tôi, khi, nhà, anh</t>
   </si>
   <si>
+    <t>N, P, M, Np, Nc, L, Nu, FW, Ny, V</t>
+  </si>
+  <si>
     <t>B-PP</t>
   </si>
   <si>
-    <t>E, NNP</t>
-  </si>
-  <si>
     <t>của, trong, với, ở, cho, để, đến, vào, từ, trên</t>
   </si>
   <si>
+    <t>E, Np</t>
+  </si>
+  <si>
     <t>B-VP</t>
   </si>
   <si>
-    <t>V, Vb, Vy, Nb</t>
-  </si>
-  <si>
     <t>là, có, đi, được, làm, phải, lên, ra, bị, nói</t>
   </si>
   <si>
+    <t>V, Vy, FW</t>
+  </si>
+  <si>
     <t>I-NP</t>
   </si>
   <si>
-    <t>NNP, N, M, CH, V, Ny, A, Nb, Cc, Ni</t>
-  </si>
-  <si>
-    <t>Văn, Nam, Hoà, Thị, Sang, HCM, Cảnh, Oanh, Việt, Mai</t>
+    <t>Văn, Nam, Hoà, Thị, Sang, HCM, Oanh, Cảnh, Việt, Á</t>
+  </si>
+  <si>
+    <t>Np, N, M, CH, V, Ny, A, FW, C, X</t>
   </si>
   <si>
     <t>O</t>
   </si>
   <si>
-    <t>CH, R, C, Cc, T, X, I, Z, FW</t>
-  </si>
-  <si>
     <t>,, ., “, ”, và, đã, không, :, ..., -</t>
+  </si>
+  <si>
+    <t>CH, R, C, T, X, I, Z, FW</t>
   </si>
 </sst>
 </file>
